--- a/THE Halo Statline.xlsx
+++ b/THE Halo Statline.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinbichoupan/projects/halo_stats/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F4E75-D927-F941-B96C-43D09CB10824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24240" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="All Maps Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Blackout" sheetId="2" r:id="rId2"/>
+    <sheet name="Construct" sheetId="3" r:id="rId3"/>
+    <sheet name="Guardian" sheetId="4" r:id="rId4"/>
+    <sheet name="The Pit" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="36">
   <si>
-    <t>Overall Stats -- Cumulative</t>
+    <t>Overall -- Cumulative</t>
   </si>
   <si>
     <t>Total Games</t>
@@ -103,14 +101,38 @@
     <t>k/d spread</t>
   </si>
   <si>
-    <t>Overall Stats -- Recent Halo Night On 3/2/21</t>
+    <t>Overall -- Recent Halo Night On 3/2/21</t>
+  </si>
+  <si>
+    <t>Blackout -- Cumulative</t>
+  </si>
+  <si>
+    <t>Blackout -- Recent Halo Night On 3/2/21</t>
+  </si>
+  <si>
+    <t>Construct -- Cumulative</t>
+  </si>
+  <si>
+    <t>Construct -- Recent Halo Night On 3/2/21</t>
+  </si>
+  <si>
+    <t>Guardian -- Cumulative</t>
+  </si>
+  <si>
+    <t>Guardian -- Recent Halo Night On 3/2/21</t>
+  </si>
+  <si>
+    <t>The Pit -- Cumulative</t>
+  </si>
+  <si>
+    <t>The Pit -- Recent Halo Night On 3/2/21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +195,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,21 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -538,7 +514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -662,7 +638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -733,7 +709,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -768,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
@@ -804,7 +780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -875,7 +851,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -946,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -981,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
@@ -1017,7 +993,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1061,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T10">
         <v>6.8</v>
@@ -1088,7 +1064,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1132,10 +1108,10 @@
         <v>11</v>
       </c>
       <c r="S11">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T11">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U11">
         <v>12.1</v>
@@ -1159,12 +1135,12 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1308,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1379,7 +1355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1426,7 +1402,7 @@
         <v>12.9</v>
       </c>
       <c r="T18">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U18">
         <v>13.2</v>
@@ -1450,7 +1426,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1521,7 +1497,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1592,7 +1568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1663,7 +1639,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1707,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="S22">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T22">
         <v>8</v>
@@ -1734,7 +1710,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1778,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="S23">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T23">
         <v>6.6</v>
@@ -1803,6 +1779,4658 @@
       </c>
       <c r="AB23">
         <v>-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>83.3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1.59</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>16.7</v>
+      </c>
+      <c r="T4">
+        <v>7.3</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <v>44</v>
+      </c>
+      <c r="AA4">
+        <v>90</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>83.3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>1.19</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>13.5</v>
+      </c>
+      <c r="T5">
+        <v>5.2</v>
+      </c>
+      <c r="U5">
+        <v>8.5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>81</v>
+      </c>
+      <c r="Z5">
+        <v>31</v>
+      </c>
+      <c r="AA5">
+        <v>51</v>
+      </c>
+      <c r="AB5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>83.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>1.15</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>11.7</v>
+      </c>
+      <c r="T6">
+        <v>6.5</v>
+      </c>
+      <c r="U6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>70</v>
+      </c>
+      <c r="Z6">
+        <v>39</v>
+      </c>
+      <c r="AA6">
+        <v>59</v>
+      </c>
+      <c r="AB6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1.11</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>11.3</v>
+      </c>
+      <c r="T7">
+        <v>6.3</v>
+      </c>
+      <c r="U7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7">
+        <v>68</v>
+      </c>
+      <c r="Z7">
+        <v>38</v>
+      </c>
+      <c r="AA7">
+        <v>59</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>0.86</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>11.2</v>
+      </c>
+      <c r="T8">
+        <v>8.5</v>
+      </c>
+      <c r="U8">
+        <v>13</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>67</v>
+      </c>
+      <c r="Z8">
+        <v>51</v>
+      </c>
+      <c r="AA8">
+        <v>78</v>
+      </c>
+      <c r="AB8">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>16.7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>0.86</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>11.2</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>14.7</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>67</v>
+      </c>
+      <c r="Z9">
+        <v>48</v>
+      </c>
+      <c r="AA9">
+        <v>88</v>
+      </c>
+      <c r="AB9">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>16.7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>0.76</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>10.5</v>
+      </c>
+      <c r="T10">
+        <v>8.5</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7</v>
+      </c>
+      <c r="X10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>63</v>
+      </c>
+      <c r="Z10">
+        <v>51</v>
+      </c>
+      <c r="AA10">
+        <v>90</v>
+      </c>
+      <c r="AB10">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>16.7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>10.2</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>11.8</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>61</v>
+      </c>
+      <c r="Z11">
+        <v>42</v>
+      </c>
+      <c r="AA11">
+        <v>71</v>
+      </c>
+      <c r="AB11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>2.41</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>7.2</v>
+      </c>
+      <c r="U16">
+        <v>16.2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>68</v>
+      </c>
+      <c r="Z16">
+        <v>29</v>
+      </c>
+      <c r="AA16">
+        <v>65</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>75</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17">
+        <v>1.16</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>16.2</v>
+      </c>
+      <c r="T17">
+        <v>4.2</v>
+      </c>
+      <c r="U17">
+        <v>6.8</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>65</v>
+      </c>
+      <c r="Z17">
+        <v>17</v>
+      </c>
+      <c r="AA17">
+        <v>27</v>
+      </c>
+      <c r="AB17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>75</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>1.11</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>11.5</v>
+      </c>
+      <c r="T18">
+        <v>8.5</v>
+      </c>
+      <c r="U18">
+        <v>14.5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>46</v>
+      </c>
+      <c r="Z18">
+        <v>34</v>
+      </c>
+      <c r="AA18">
+        <v>58</v>
+      </c>
+      <c r="AB18">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>75</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>1.05</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>6.5</v>
+      </c>
+      <c r="U19">
+        <v>9.5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y19">
+        <v>44</v>
+      </c>
+      <c r="Z19">
+        <v>26</v>
+      </c>
+      <c r="AA19">
+        <v>38</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>0.96</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>10.8</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>11.2</v>
+      </c>
+      <c r="W20" s="1">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>43</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>45</v>
+      </c>
+      <c r="AB20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>0.79</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>10.8</v>
+      </c>
+      <c r="T21">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U21">
+        <v>15.2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>43</v>
+      </c>
+      <c r="Z21">
+        <v>33</v>
+      </c>
+      <c r="AA21">
+        <v>61</v>
+      </c>
+      <c r="AB21">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>0.7</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>7.8</v>
+      </c>
+      <c r="U22">
+        <v>9</v>
+      </c>
+      <c r="W22" s="1">
+        <v>7</v>
+      </c>
+      <c r="X22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>40</v>
+      </c>
+      <c r="Z22">
+        <v>31</v>
+      </c>
+      <c r="AA22">
+        <v>36</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>0.59</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>8.5</v>
+      </c>
+      <c r="T23">
+        <v>10.2</v>
+      </c>
+      <c r="U23">
+        <v>14.5</v>
+      </c>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>34</v>
+      </c>
+      <c r="Z23">
+        <v>41</v>
+      </c>
+      <c r="AA23">
+        <v>58</v>
+      </c>
+      <c r="AB23">
+        <v>-24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1.55</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>17</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <v>11</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>1.33</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>12</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>16</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>1.11</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>13</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>14</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>1.11</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>11</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>16</v>
+      </c>
+      <c r="AB7">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1.08</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7</v>
+      </c>
+      <c r="X10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>0.38</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>18</v>
+      </c>
+      <c r="U11">
+        <v>13</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>13</v>
+      </c>
+      <c r="AB11">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>58.3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1.29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>14.2</v>
+      </c>
+      <c r="T4">
+        <v>7.5</v>
+      </c>
+      <c r="U4">
+        <v>12.4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>171</v>
+      </c>
+      <c r="Z4">
+        <v>90</v>
+      </c>
+      <c r="AA4">
+        <v>149</v>
+      </c>
+      <c r="AB4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>58.3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1.16</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>14.1</v>
+      </c>
+      <c r="T5">
+        <v>7.7</v>
+      </c>
+      <c r="U5">
+        <v>12.2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>169</v>
+      </c>
+      <c r="Z5">
+        <v>92</v>
+      </c>
+      <c r="AA5">
+        <v>146</v>
+      </c>
+      <c r="AB5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>58.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1.15</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>13.3</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>12.8</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>160</v>
+      </c>
+      <c r="Z6">
+        <v>84</v>
+      </c>
+      <c r="AA6">
+        <v>153</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>58.3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>1.05</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>12.7</v>
+      </c>
+      <c r="T7">
+        <v>8.9</v>
+      </c>
+      <c r="U7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>152</v>
+      </c>
+      <c r="Z7">
+        <v>107</v>
+      </c>
+      <c r="AA7">
+        <v>118</v>
+      </c>
+      <c r="AB7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>41.7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.97</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>11.5</v>
+      </c>
+      <c r="T8">
+        <v>7.9</v>
+      </c>
+      <c r="U8">
+        <v>11.8</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>138</v>
+      </c>
+      <c r="Z8">
+        <v>95</v>
+      </c>
+      <c r="AA8">
+        <v>142</v>
+      </c>
+      <c r="AB8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>41.7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>0.89</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <v>9.4</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9">
+        <v>113</v>
+      </c>
+      <c r="Z9">
+        <v>108</v>
+      </c>
+      <c r="AA9">
+        <v>144</v>
+      </c>
+      <c r="AB9">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>41.7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>0.78</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T10">
+        <v>9.1</v>
+      </c>
+      <c r="U10">
+        <v>12.4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7</v>
+      </c>
+      <c r="X10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>112</v>
+      </c>
+      <c r="Z10">
+        <v>109</v>
+      </c>
+      <c r="AA10">
+        <v>149</v>
+      </c>
+      <c r="AB10">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>41.7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T11">
+        <v>6.7</v>
+      </c>
+      <c r="U11">
+        <v>10.3</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>110</v>
+      </c>
+      <c r="Z11">
+        <v>80</v>
+      </c>
+      <c r="AA11">
+        <v>124</v>
+      </c>
+      <c r="AB11">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>66.7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1.12</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>14.5</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>13.2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>87</v>
+      </c>
+      <c r="Z16">
+        <v>48</v>
+      </c>
+      <c r="AA16">
+        <v>79</v>
+      </c>
+      <c r="AB16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>66.7</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>1.1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>14</v>
+      </c>
+      <c r="T17">
+        <v>7.8</v>
+      </c>
+      <c r="U17">
+        <v>12.8</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>84</v>
+      </c>
+      <c r="Z17">
+        <v>47</v>
+      </c>
+      <c r="AA17">
+        <v>77</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>66.7</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>1.09</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>12.5</v>
+      </c>
+      <c r="T18">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U18">
+        <v>11.2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>75</v>
+      </c>
+      <c r="Z18">
+        <v>49</v>
+      </c>
+      <c r="AA18">
+        <v>67</v>
+      </c>
+      <c r="AB18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>66.7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>1.04</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>12.2</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>11.7</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>73</v>
+      </c>
+      <c r="Z19">
+        <v>60</v>
+      </c>
+      <c r="AA19">
+        <v>70</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>33.3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>0.93</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>11.2</v>
+      </c>
+      <c r="T20">
+        <v>8.5</v>
+      </c>
+      <c r="U20">
+        <v>12</v>
+      </c>
+      <c r="W20" s="1">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>67</v>
+      </c>
+      <c r="Z20">
+        <v>51</v>
+      </c>
+      <c r="AA20">
+        <v>72</v>
+      </c>
+      <c r="AB20">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>33.3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>0.9</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>10.3</v>
+      </c>
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>11.5</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>62</v>
+      </c>
+      <c r="Z21">
+        <v>54</v>
+      </c>
+      <c r="AA21">
+        <v>69</v>
+      </c>
+      <c r="AB21">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>33.3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0.87</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U22">
+        <v>12</v>
+      </c>
+      <c r="W22" s="1">
+        <v>7</v>
+      </c>
+      <c r="X22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22">
+        <v>60</v>
+      </c>
+      <c r="Z22">
+        <v>55</v>
+      </c>
+      <c r="AA22">
+        <v>72</v>
+      </c>
+      <c r="AB22">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>33.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>0.83</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="T23">
+        <v>6.3</v>
+      </c>
+      <c r="U23">
+        <v>11.3</v>
+      </c>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23">
+        <v>59</v>
+      </c>
+      <c r="Z23">
+        <v>38</v>
+      </c>
+      <c r="AA23">
+        <v>68</v>
+      </c>
+      <c r="AB23">
+        <v>-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>62.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1.53</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>14.5</v>
+      </c>
+      <c r="T4">
+        <v>6.8</v>
+      </c>
+      <c r="U4">
+        <v>10.9</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>116</v>
+      </c>
+      <c r="Z4">
+        <v>54</v>
+      </c>
+      <c r="AA4">
+        <v>87</v>
+      </c>
+      <c r="AB4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>62.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>1.33</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>14.4</v>
+      </c>
+      <c r="T5">
+        <v>6.4</v>
+      </c>
+      <c r="U5">
+        <v>9.4</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>115</v>
+      </c>
+      <c r="Z5">
+        <v>51</v>
+      </c>
+      <c r="AA5">
+        <v>75</v>
+      </c>
+      <c r="AB5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>62.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>1.16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>12.4</v>
+      </c>
+      <c r="T6">
+        <v>7.9</v>
+      </c>
+      <c r="U6">
+        <v>12.8</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>99</v>
+      </c>
+      <c r="Z6">
+        <v>63</v>
+      </c>
+      <c r="AA6">
+        <v>102</v>
+      </c>
+      <c r="AB6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>0.97</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>11.9</v>
+      </c>
+      <c r="T7">
+        <v>7.4</v>
+      </c>
+      <c r="U7">
+        <v>10.2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>95</v>
+      </c>
+      <c r="Z7">
+        <v>59</v>
+      </c>
+      <c r="AA7">
+        <v>82</v>
+      </c>
+      <c r="AB7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>0.92</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>11.1</v>
+      </c>
+      <c r="T8">
+        <v>6.8</v>
+      </c>
+      <c r="U8">
+        <v>12.2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>89</v>
+      </c>
+      <c r="Z8">
+        <v>54</v>
+      </c>
+      <c r="AA8">
+        <v>98</v>
+      </c>
+      <c r="AB8">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>37.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.91</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>10.2</v>
+      </c>
+      <c r="T9">
+        <v>7.9</v>
+      </c>
+      <c r="U9">
+        <v>12.6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>82</v>
+      </c>
+      <c r="Z9">
+        <v>63</v>
+      </c>
+      <c r="AA9">
+        <v>101</v>
+      </c>
+      <c r="AB9">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>37.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>8.9</v>
+      </c>
+      <c r="T10">
+        <v>7.1</v>
+      </c>
+      <c r="U10">
+        <v>9.6</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7</v>
+      </c>
+      <c r="X10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>71</v>
+      </c>
+      <c r="Z10">
+        <v>57</v>
+      </c>
+      <c r="AA10">
+        <v>77</v>
+      </c>
+      <c r="AB10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>37.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>7.8</v>
+      </c>
+      <c r="T11">
+        <v>9.1</v>
+      </c>
+      <c r="U11">
+        <v>13.8</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11">
+        <v>62</v>
+      </c>
+      <c r="Z11">
+        <v>73</v>
+      </c>
+      <c r="AA11">
+        <v>110</v>
+      </c>
+      <c r="AB11">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>66.7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1.87</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <v>5.3</v>
+      </c>
+      <c r="U16">
+        <v>12.7</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>48</v>
+      </c>
+      <c r="Z16">
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <v>38</v>
+      </c>
+      <c r="AB16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>66.7</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>1.54</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>14.3</v>
+      </c>
+      <c r="T17">
+        <v>5.3</v>
+      </c>
+      <c r="U17">
+        <v>7.7</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>43</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17">
+        <v>23</v>
+      </c>
+      <c r="AB17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>66.7</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>1.26</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>13.3</v>
+      </c>
+      <c r="T18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>40</v>
+      </c>
+      <c r="Z18">
+        <v>26</v>
+      </c>
+      <c r="AA18">
+        <v>26</v>
+      </c>
+      <c r="AB18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>66.7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>12.7</v>
+      </c>
+      <c r="T19">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U19">
+        <v>12.3</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>25</v>
+      </c>
+      <c r="AA19">
+        <v>37</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>33.3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>0.92</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>5.3</v>
+      </c>
+      <c r="U20">
+        <v>13</v>
+      </c>
+      <c r="W20" s="1">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <v>36</v>
+      </c>
+      <c r="Z20">
+        <v>16</v>
+      </c>
+      <c r="AA20">
+        <v>39</v>
+      </c>
+      <c r="AB20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>33.3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>0.78</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="T21">
+        <v>8</v>
+      </c>
+      <c r="U21">
+        <v>12.3</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>29</v>
+      </c>
+      <c r="Z21">
+        <v>24</v>
+      </c>
+      <c r="AA21">
+        <v>37</v>
+      </c>
+      <c r="AB21">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>33.3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0.7</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>5.7</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="W22" s="1">
+        <v>7</v>
+      </c>
+      <c r="X22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+      <c r="AA22">
+        <v>30</v>
+      </c>
+      <c r="AB22">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>33.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>0.38</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23">
+        <v>5.7</v>
+      </c>
+      <c r="T23">
+        <v>7.7</v>
+      </c>
+      <c r="U23">
+        <v>15</v>
+      </c>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>17</v>
+      </c>
+      <c r="Z23">
+        <v>23</v>
+      </c>
+      <c r="AA23">
+        <v>45</v>
+      </c>
+      <c r="AB23">
+        <v>-28</v>
       </c>
     </row>
   </sheetData>

--- a/THE Halo Statline.xlsx
+++ b/THE Halo Statline.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="36">
   <si>
     <t>Overall -- Cumulative</t>
   </si>
@@ -101,31 +101,31 @@
     <t>k/d spread</t>
   </si>
   <si>
-    <t>Overall -- Recent Halo Night On 3/2/21</t>
+    <t>Overall -- Recent Halo Night On 3/16/21</t>
   </si>
   <si>
     <t>Blackout -- Cumulative</t>
   </si>
   <si>
-    <t>Blackout -- Recent Halo Night On 3/2/21</t>
+    <t>Blackout -- Recent Halo Night On 3/16/21</t>
   </si>
   <si>
     <t>Construct -- Cumulative</t>
   </si>
   <si>
-    <t>Construct -- Recent Halo Night On 3/2/21</t>
+    <t>Construct -- Recent Halo Night On 3/16/21</t>
   </si>
   <si>
     <t>Guardian -- Cumulative</t>
   </si>
   <si>
-    <t>Guardian -- Recent Halo Night On 3/2/21</t>
+    <t>Guardian -- Recent Halo Night On 3/16/21</t>
   </si>
   <si>
     <t>The Pit -- Cumulative</t>
   </si>
   <si>
-    <t>The Pit -- Recent Halo Night On 3/2/21</t>
+    <t>The Pit -- Recent Halo Night On 3/16/21</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -593,49 +593,49 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>51.9</v>
+        <v>55.3</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="T4">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="U4">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>387</v>
+        <v>540</v>
       </c>
       <c r="Z4">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="AA4">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="AB4">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -646,67 +646,67 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>51.9</v>
+        <v>52.6</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>13.9</v>
       </c>
       <c r="T5">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="U5">
-        <v>10.7</v>
+        <v>13.3</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>376</v>
+        <v>527</v>
       </c>
       <c r="Z5">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="AA5">
-        <v>288</v>
+        <v>507</v>
       </c>
       <c r="AB5">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -717,25 +717,25 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>51.9</v>
+        <v>52.6</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
@@ -753,13 +753,13 @@
         <v>4</v>
       </c>
       <c r="S6">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="T6">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U6">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
@@ -768,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="Z6">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="AA6">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="AB6">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -788,34 +788,34 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
@@ -824,13 +824,13 @@
         <v>7</v>
       </c>
       <c r="S7">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
@@ -839,16 +839,16 @@
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="Z7">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="AA7">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="AB7">
-        <v>-22</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -859,34 +859,34 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>48.1</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O8">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -901,7 +901,7 @@
         <v>7.3</v>
       </c>
       <c r="U8">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -910,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="Z8">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="AA8">
-        <v>304</v>
+        <v>456</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -930,25 +930,25 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>48.1</v>
+        <v>50</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
@@ -969,10 +969,10 @@
         <v>10.1</v>
       </c>
       <c r="T9">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U9">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W9" s="1">
         <v>6</v>
@@ -981,16 +981,16 @@
         <v>9</v>
       </c>
       <c r="Y9">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="Z9">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="AA9">
-        <v>352</v>
+        <v>492</v>
       </c>
       <c r="AB9">
-        <v>-79</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1001,34 +1001,34 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>48.1</v>
+        <v>44.7</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O10">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="Q10" s="1">
         <v>7</v>
@@ -1037,13 +1037,13 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T10">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="W10" s="1">
         <v>7</v>
@@ -1052,16 +1052,16 @@
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>261</v>
+        <v>372</v>
       </c>
       <c r="Z10">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="AA10">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="AB10">
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1072,34 +1072,34 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>48.1</v>
+        <v>44.7</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
@@ -1111,10 +1111,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="T11">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U11">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="W11" s="1">
         <v>8</v>
@@ -1123,16 +1123,16 @@
         <v>11</v>
       </c>
       <c r="Y11">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="Z11">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="AA11">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="AB11">
-        <v>-78</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1239,49 +1239,49 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>53.8</v>
+        <v>60</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
       </c>
       <c r="R16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>15.8</v>
+      </c>
+      <c r="T16">
+        <v>7.6</v>
+      </c>
+      <c r="U16">
+        <v>13.8</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>79</v>
+      </c>
+      <c r="Z16">
+        <v>38</v>
+      </c>
+      <c r="AA16">
+        <v>69</v>
+      </c>
+      <c r="AB16">
         <v>10</v>
-      </c>
-      <c r="S16">
-        <v>14.7</v>
-      </c>
-      <c r="T16">
-        <v>7.2</v>
-      </c>
-      <c r="U16">
-        <v>14.1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16">
-        <v>191</v>
-      </c>
-      <c r="Z16">
-        <v>93</v>
-      </c>
-      <c r="AA16">
-        <v>183</v>
-      </c>
-      <c r="AB16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1301,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -1310,49 +1310,49 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>53.8</v>
+        <v>60</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="T17">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y17">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="Z17">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AA17">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AB17">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -1381,49 +1381,49 @@
         <v>7</v>
       </c>
       <c r="K18">
-        <v>53.8</v>
+        <v>60</v>
       </c>
       <c r="M18" s="1">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="Q18" s="1">
         <v>3</v>
       </c>
       <c r="R18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="T18">
         <v>8.199999999999999</v>
       </c>
       <c r="U18">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="W18" s="1">
         <v>3</v>
       </c>
       <c r="X18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y18">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="Z18">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="AA18">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="AB18">
-        <v>-4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -1434,67 +1434,67 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>53.8</v>
+        <v>60</v>
       </c>
       <c r="M19" s="1">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O19">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q19" s="1">
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="T19">
         <v>9</v>
       </c>
       <c r="U19">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
       </c>
       <c r="X19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y19">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="Z19">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AA19">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="AB19">
-        <v>-11</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -1505,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -1523,49 +1523,49 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <v>46.2</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O20">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="Q20" s="1">
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="T20">
-        <v>7.5</v>
+        <v>10.2</v>
       </c>
       <c r="U20">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="W20" s="1">
         <v>5</v>
       </c>
       <c r="X20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y20">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="Z20">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="AA20">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="AB20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -1585,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>6</v>
@@ -1594,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="K21">
-        <v>46.2</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>0.9</v>
@@ -1609,34 +1609,34 @@
         <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="T21">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="U21">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="W21" s="1">
         <v>6</v>
       </c>
       <c r="X21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y21">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="Z21">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="AA21">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="AB21">
-        <v>-33</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -1647,67 +1647,67 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>46.2</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1">
         <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Q22" s="1">
         <v>7</v>
       </c>
       <c r="R22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T22">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U22">
-        <v>11.9</v>
+        <v>13.8</v>
       </c>
       <c r="W22" s="1">
         <v>7</v>
       </c>
       <c r="X22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y22">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="Z22">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AA22">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="AB22">
-        <v>-34</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -1718,67 +1718,67 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>8</v>
       </c>
       <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0.71</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
         <v>11</v>
       </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="I23" s="1">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="S23">
+        <v>7.8</v>
+      </c>
+      <c r="T23">
+        <v>7.4</v>
+      </c>
+      <c r="U23">
+        <v>8.6</v>
+      </c>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" t="s">
         <v>11</v>
       </c>
-      <c r="K23">
-        <v>46.2</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8</v>
-      </c>
-      <c r="N23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23">
-        <v>0.78</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>8</v>
-      </c>
-      <c r="R23" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="T23">
-        <v>6.6</v>
-      </c>
-      <c r="U23">
-        <v>10.3</v>
-      </c>
-      <c r="W23" s="1">
-        <v>8</v>
-      </c>
-      <c r="X23" t="s">
-        <v>8</v>
-      </c>
       <c r="Y23">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="Z23">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="AA23">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="AB23">
-        <v>-14</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2516,574 +2516,6 @@
       </c>
       <c r="AB15" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>75</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>2.41</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16">
-        <v>17</v>
-      </c>
-      <c r="T16">
-        <v>7.2</v>
-      </c>
-      <c r="U16">
-        <v>16.2</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16">
-        <v>68</v>
-      </c>
-      <c r="Z16">
-        <v>29</v>
-      </c>
-      <c r="AA16">
-        <v>65</v>
-      </c>
-      <c r="AB16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>75</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17">
-        <v>1.16</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17">
-        <v>16.2</v>
-      </c>
-      <c r="T17">
-        <v>4.2</v>
-      </c>
-      <c r="U17">
-        <v>6.8</v>
-      </c>
-      <c r="W17" s="1">
-        <v>2</v>
-      </c>
-      <c r="X17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17">
-        <v>65</v>
-      </c>
-      <c r="Z17">
-        <v>17</v>
-      </c>
-      <c r="AA17">
-        <v>27</v>
-      </c>
-      <c r="AB17">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>75</v>
-      </c>
-      <c r="M18" s="1">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18">
-        <v>1.11</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>3</v>
-      </c>
-      <c r="R18" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18">
-        <v>11.5</v>
-      </c>
-      <c r="T18">
-        <v>8.5</v>
-      </c>
-      <c r="U18">
-        <v>14.5</v>
-      </c>
-      <c r="W18" s="1">
-        <v>3</v>
-      </c>
-      <c r="X18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y18">
-        <v>46</v>
-      </c>
-      <c r="Z18">
-        <v>34</v>
-      </c>
-      <c r="AA18">
-        <v>58</v>
-      </c>
-      <c r="AB18">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19">
-        <v>75</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19">
-        <v>1.05</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19">
-        <v>11</v>
-      </c>
-      <c r="T19">
-        <v>6.5</v>
-      </c>
-      <c r="U19">
-        <v>9.5</v>
-      </c>
-      <c r="W19" s="1">
-        <v>4</v>
-      </c>
-      <c r="X19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y19">
-        <v>44</v>
-      </c>
-      <c r="Z19">
-        <v>26</v>
-      </c>
-      <c r="AA19">
-        <v>38</v>
-      </c>
-      <c r="AB19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="1">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20">
-        <v>0.96</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20">
-        <v>10.8</v>
-      </c>
-      <c r="T20">
-        <v>5</v>
-      </c>
-      <c r="U20">
-        <v>11.2</v>
-      </c>
-      <c r="W20" s="1">
-        <v>5</v>
-      </c>
-      <c r="X20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <v>43</v>
-      </c>
-      <c r="Z20">
-        <v>20</v>
-      </c>
-      <c r="AA20">
-        <v>45</v>
-      </c>
-      <c r="AB20">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="1">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1">
-        <v>6</v>
-      </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21">
-        <v>0.79</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>6</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21">
-        <v>10.8</v>
-      </c>
-      <c r="T21">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U21">
-        <v>15.2</v>
-      </c>
-      <c r="W21" s="1">
-        <v>6</v>
-      </c>
-      <c r="X21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y21">
-        <v>43</v>
-      </c>
-      <c r="Z21">
-        <v>33</v>
-      </c>
-      <c r="AA21">
-        <v>61</v>
-      </c>
-      <c r="AB21">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="1">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>25</v>
-      </c>
-      <c r="M22" s="1">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22">
-        <v>0.7</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>7</v>
-      </c>
-      <c r="R22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22">
-        <v>10</v>
-      </c>
-      <c r="T22">
-        <v>7.8</v>
-      </c>
-      <c r="U22">
-        <v>9</v>
-      </c>
-      <c r="W22" s="1">
-        <v>7</v>
-      </c>
-      <c r="X22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y22">
-        <v>40</v>
-      </c>
-      <c r="Z22">
-        <v>31</v>
-      </c>
-      <c r="AA22">
-        <v>36</v>
-      </c>
-      <c r="AB22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="1">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>25</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8</v>
-      </c>
-      <c r="N23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <v>0.59</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>8</v>
-      </c>
-      <c r="R23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23">
-        <v>8.5</v>
-      </c>
-      <c r="T23">
-        <v>10.2</v>
-      </c>
-      <c r="U23">
-        <v>14.5</v>
-      </c>
-      <c r="W23" s="1">
-        <v>8</v>
-      </c>
-      <c r="X23" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23">
-        <v>34</v>
-      </c>
-      <c r="Z23">
-        <v>41</v>
-      </c>
-      <c r="AA23">
-        <v>58</v>
-      </c>
-      <c r="AB23">
-        <v>-24</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -3931,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -3940,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>58.3</v>
+        <v>60.9</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -3949,40 +3381,40 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="T4">
         <v>7.5</v>
       </c>
       <c r="U4">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="Z4">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="AA4">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="AB4">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3993,25 +3425,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>58.3</v>
+        <v>56.5</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -4020,40 +3452,40 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="T5">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U5">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="Z5">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="AA5">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="AB5">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4064,25 +3496,25 @@
         <v>6</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>58.3</v>
+        <v>52.2</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -4091,40 +3523,40 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="U6">
-        <v>12.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y6">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="Z6">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="AA6">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="AB6">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4135,25 +3567,25 @@
         <v>7</v>
       </c>
       <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>58.3</v>
+        <v>52.2</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
@@ -4162,40 +3594,40 @@
         <v>7</v>
       </c>
       <c r="O7">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="T7">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U7">
-        <v>9.800000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y7">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="Z7">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="AA7">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="AB7">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4206,34 +3638,34 @@
         <v>8</v>
       </c>
       <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>41.7</v>
+        <v>52.2</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -4245,10 +3677,10 @@
         <v>11.5</v>
       </c>
       <c r="T8">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U8">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -4257,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="Z8">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="AA8">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="AB8">
-        <v>-4</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4277,67 +3709,67 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>41.7</v>
+        <v>47.8</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="U9">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="W9" s="1">
         <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y9">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="Z9">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="AA9">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="AB9">
-        <v>-31</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4348,25 +3780,25 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>41.7</v>
+        <v>39.1</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
@@ -4375,40 +3807,40 @@
         <v>11</v>
       </c>
       <c r="O10">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="Q10" s="1">
         <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="T10">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="U10">
-        <v>12.4</v>
+        <v>10.1</v>
       </c>
       <c r="W10" s="1">
         <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y10">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="Z10">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="AA10">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="AB10">
-        <v>-37</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4419,67 +3851,67 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>39.1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.77</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
         <v>11</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="S11">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U11">
+        <v>11.1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
         <v>11</v>
       </c>
-      <c r="K11">
-        <v>41.7</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11">
-        <v>0.75</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>8</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="T11">
-        <v>6.7</v>
-      </c>
-      <c r="U11">
-        <v>10.3</v>
-      </c>
-      <c r="W11" s="1">
-        <v>8</v>
-      </c>
-      <c r="X11" t="s">
-        <v>8</v>
-      </c>
       <c r="Y11">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="Z11">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA11">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="AB11">
-        <v>-14</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -4568,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -4577,7 +4009,7 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -4586,49 +4018,49 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>1.12</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
       </c>
       <c r="R16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>15.8</v>
+      </c>
+      <c r="T16">
+        <v>7.6</v>
+      </c>
+      <c r="U16">
+        <v>13.8</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>79</v>
+      </c>
+      <c r="Z16">
+        <v>38</v>
+      </c>
+      <c r="AA16">
+        <v>69</v>
+      </c>
+      <c r="AB16">
         <v>10</v>
-      </c>
-      <c r="S16">
-        <v>14.5</v>
-      </c>
-      <c r="T16">
-        <v>8</v>
-      </c>
-      <c r="U16">
-        <v>13.2</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16">
-        <v>87</v>
-      </c>
-      <c r="Z16">
-        <v>48</v>
-      </c>
-      <c r="AA16">
-        <v>79</v>
-      </c>
-      <c r="AB16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -4639,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -4648,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -4657,49 +4089,49 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="T17">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="U17">
-        <v>12.8</v>
+        <v>8.6</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y17">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z17">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AA17">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AB17">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -4710,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -4719,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -4728,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="K18">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="M18" s="1">
         <v>3</v>
@@ -4737,40 +4169,40 @@
         <v>7</v>
       </c>
       <c r="O18">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="Q18" s="1">
         <v>3</v>
       </c>
       <c r="R18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="T18">
         <v>8.199999999999999</v>
       </c>
       <c r="U18">
-        <v>11.2</v>
+        <v>14.2</v>
       </c>
       <c r="W18" s="1">
         <v>3</v>
       </c>
       <c r="X18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y18">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Z18">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AA18">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB18">
-        <v>8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -4781,67 +4213,67 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="M19" s="1">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O19">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q19" s="1">
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>13.4</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" t="s">
         <v>10</v>
       </c>
-      <c r="U19">
-        <v>11.7</v>
-      </c>
-      <c r="W19" s="1">
-        <v>4</v>
-      </c>
-      <c r="X19" t="s">
-        <v>4</v>
-      </c>
       <c r="Y19">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Z19">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AA19">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB19">
-        <v>3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -4852,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -4870,49 +4302,49 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O20">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="Q20" s="1">
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="T20">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="U20">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="W20" s="1">
         <v>5</v>
       </c>
       <c r="X20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y20">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Z20">
         <v>51</v>
       </c>
       <c r="AA20">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB20">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -4923,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -4941,13 +4373,13 @@
         <v>8</v>
       </c>
       <c r="K21">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>0.9</v>
@@ -4956,31 +4388,31 @@
         <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="U21">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="W21" s="1">
         <v>6</v>
       </c>
       <c r="X21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y21">
+        <v>55</v>
+      </c>
+      <c r="Z21">
+        <v>47</v>
+      </c>
+      <c r="AA21">
         <v>62</v>
-      </c>
-      <c r="Z21">
-        <v>54</v>
-      </c>
-      <c r="AA21">
-        <v>69</v>
       </c>
       <c r="AB21">
         <v>-7</v>
@@ -4994,13 +4426,13 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5009,10 +4441,10 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1">
         <v>7</v>
@@ -5021,40 +4453,40 @@
         <v>8</v>
       </c>
       <c r="O22">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="Q22" s="1">
         <v>7</v>
       </c>
       <c r="R22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T22">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U22">
-        <v>12</v>
+        <v>13.8</v>
       </c>
       <c r="W22" s="1">
         <v>7</v>
       </c>
       <c r="X22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y22">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Z22">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA22">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB22">
-        <v>-12</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -5065,67 +4497,67 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>8</v>
       </c>
       <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0.71</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
         <v>11</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="S23">
+        <v>7.8</v>
+      </c>
+      <c r="T23">
+        <v>7.4</v>
+      </c>
+      <c r="U23">
+        <v>8.6</v>
+      </c>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" t="s">
         <v>11</v>
       </c>
-      <c r="K23">
-        <v>33.3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8</v>
-      </c>
-      <c r="N23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23">
-        <v>0.83</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>8</v>
-      </c>
-      <c r="R23" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="T23">
-        <v>6.3</v>
-      </c>
-      <c r="U23">
-        <v>11.3</v>
-      </c>
-      <c r="W23" s="1">
-        <v>8</v>
-      </c>
-      <c r="X23" t="s">
-        <v>8</v>
-      </c>
       <c r="Y23">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="Z23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA23">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="AB23">
-        <v>-9</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +4567,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5865,574 +5297,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>66.7</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>1.87</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16">
-        <v>16</v>
-      </c>
-      <c r="T16">
-        <v>5.3</v>
-      </c>
-      <c r="U16">
-        <v>12.7</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16">
-        <v>48</v>
-      </c>
-      <c r="Z16">
-        <v>16</v>
-      </c>
-      <c r="AA16">
-        <v>38</v>
-      </c>
-      <c r="AB16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17">
-        <v>66.7</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17">
-        <v>1.54</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17">
-        <v>14.3</v>
-      </c>
-      <c r="T17">
-        <v>5.3</v>
-      </c>
-      <c r="U17">
-        <v>7.7</v>
-      </c>
-      <c r="W17" s="1">
-        <v>2</v>
-      </c>
-      <c r="X17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17">
-        <v>43</v>
-      </c>
-      <c r="Z17">
-        <v>16</v>
-      </c>
-      <c r="AA17">
-        <v>23</v>
-      </c>
-      <c r="AB17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>66.7</v>
-      </c>
-      <c r="M18" s="1">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>1.26</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>3</v>
-      </c>
-      <c r="R18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18">
-        <v>13.3</v>
-      </c>
-      <c r="T18">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U18">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="W18" s="1">
-        <v>3</v>
-      </c>
-      <c r="X18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y18">
-        <v>40</v>
-      </c>
-      <c r="Z18">
-        <v>26</v>
-      </c>
-      <c r="AA18">
-        <v>26</v>
-      </c>
-      <c r="AB18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>66.7</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19">
-        <v>1.03</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19">
-        <v>12.7</v>
-      </c>
-      <c r="T19">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="U19">
-        <v>12.3</v>
-      </c>
-      <c r="W19" s="1">
-        <v>4</v>
-      </c>
-      <c r="X19" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y19">
-        <v>38</v>
-      </c>
-      <c r="Z19">
-        <v>25</v>
-      </c>
-      <c r="AA19">
-        <v>37</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="1">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>33.3</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20">
-        <v>0.92</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20">
-        <v>12</v>
-      </c>
-      <c r="T20">
-        <v>5.3</v>
-      </c>
-      <c r="U20">
-        <v>13</v>
-      </c>
-      <c r="W20" s="1">
-        <v>5</v>
-      </c>
-      <c r="X20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y20">
-        <v>36</v>
-      </c>
-      <c r="Z20">
-        <v>16</v>
-      </c>
-      <c r="AA20">
-        <v>39</v>
-      </c>
-      <c r="AB20">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="1">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>33.3</v>
-      </c>
-      <c r="M21" s="1">
-        <v>6</v>
-      </c>
-      <c r="N21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21">
-        <v>0.78</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>6</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="T21">
-        <v>8</v>
-      </c>
-      <c r="U21">
-        <v>12.3</v>
-      </c>
-      <c r="W21" s="1">
-        <v>6</v>
-      </c>
-      <c r="X21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y21">
-        <v>29</v>
-      </c>
-      <c r="Z21">
-        <v>24</v>
-      </c>
-      <c r="AA21">
-        <v>37</v>
-      </c>
-      <c r="AB21">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="1">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>33.3</v>
-      </c>
-      <c r="M22" s="1">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22">
-        <v>0.7</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>7</v>
-      </c>
-      <c r="R22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22">
-        <v>7</v>
-      </c>
-      <c r="T22">
-        <v>5.7</v>
-      </c>
-      <c r="U22">
-        <v>10</v>
-      </c>
-      <c r="W22" s="1">
-        <v>7</v>
-      </c>
-      <c r="X22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y22">
-        <v>21</v>
-      </c>
-      <c r="Z22">
-        <v>17</v>
-      </c>
-      <c r="AA22">
-        <v>30</v>
-      </c>
-      <c r="AB22">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="1">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23">
-        <v>33.3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8</v>
-      </c>
-      <c r="N23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23">
-        <v>0.38</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>8</v>
-      </c>
-      <c r="R23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23">
-        <v>5.7</v>
-      </c>
-      <c r="T23">
-        <v>7.7</v>
-      </c>
-      <c r="U23">
-        <v>15</v>
-      </c>
-      <c r="W23" s="1">
-        <v>8</v>
-      </c>
-      <c r="X23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y23">
-        <v>17</v>
-      </c>
-      <c r="Z23">
-        <v>23</v>
-      </c>
-      <c r="AA23">
-        <v>45</v>
-      </c>
-      <c r="AB23">
-        <v>-28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/THE Halo Statline.xlsx
+++ b/THE Halo Statline.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="Blackout" sheetId="2" r:id="rId2"/>
-    <sheet name="Construct" sheetId="3" r:id="rId3"/>
-    <sheet name="Guardian" sheetId="4" r:id="rId4"/>
-    <sheet name="The Pit" sheetId="5" r:id="rId5"/>
+    <sheet name="Boundless" sheetId="3" r:id="rId3"/>
+    <sheet name="Construct" sheetId="4" r:id="rId4"/>
+    <sheet name="Guardian" sheetId="5" r:id="rId5"/>
+    <sheet name="The Pit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="38">
   <si>
     <t>Overall -- Cumulative</t>
   </si>
@@ -101,31 +102,37 @@
     <t>k/d spread</t>
   </si>
   <si>
-    <t>Overall -- Recent Halo Night On 3/16/21</t>
+    <t>Overall -- Recent Halo Night On 4/13/21</t>
   </si>
   <si>
     <t>Blackout -- Cumulative</t>
   </si>
   <si>
-    <t>Blackout -- Recent Halo Night On 3/16/21</t>
+    <t>Blackout -- Recent Halo Night On 4/13/21</t>
+  </si>
+  <si>
+    <t>Boundless -- Cumulative</t>
+  </si>
+  <si>
+    <t>Boundless -- Recent Halo Night On 4/13/21</t>
   </si>
   <si>
     <t>Construct -- Cumulative</t>
   </si>
   <si>
-    <t>Construct -- Recent Halo Night On 3/16/21</t>
+    <t>Construct -- Recent Halo Night On 4/13/21</t>
   </si>
   <si>
     <t>Guardian -- Cumulative</t>
   </si>
   <si>
-    <t>Guardian -- Recent Halo Night On 3/16/21</t>
+    <t>Guardian -- Recent Halo Night On 4/13/21</t>
   </si>
   <si>
     <t>The Pit -- Cumulative</t>
   </si>
   <si>
-    <t>The Pit -- Recent Halo Night On 3/16/21</t>
+    <t>The Pit -- Recent Halo Night On 4/13/21</t>
   </si>
 </sst>
 </file>
@@ -575,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -584,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -593,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>55.3</v>
+        <v>61.2</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -602,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -611,13 +618,13 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="T4">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U4">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
@@ -626,16 +633,16 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>540</v>
+        <v>938</v>
       </c>
       <c r="Z4">
-        <v>264</v>
+        <v>484</v>
       </c>
       <c r="AA4">
-        <v>434</v>
+        <v>742</v>
       </c>
       <c r="AB4">
-        <v>106</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -646,25 +653,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>52.6</v>
+        <v>55.2</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -673,40 +680,40 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="T5">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U5">
-        <v>13.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y5">
-        <v>527</v>
+        <v>874</v>
       </c>
       <c r="Z5">
-        <v>290</v>
+        <v>526</v>
       </c>
       <c r="AA5">
-        <v>507</v>
+        <v>657</v>
       </c>
       <c r="AB5">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -717,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -726,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -735,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="K6">
-        <v>52.6</v>
+        <v>55.2</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -744,40 +751,40 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="T6">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="U6">
-        <v>10.1</v>
+        <v>12.7</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>501</v>
+        <v>869</v>
       </c>
       <c r="Z6">
-        <v>310</v>
+        <v>508</v>
       </c>
       <c r="AA6">
-        <v>385</v>
+        <v>852</v>
       </c>
       <c r="AB6">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -788,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -797,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -806,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>50.7</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
@@ -815,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="O7">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
@@ -824,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="S7">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="T7">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U7">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
@@ -839,16 +846,16 @@
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>458</v>
+        <v>850</v>
       </c>
       <c r="Z7">
-        <v>293</v>
+        <v>527</v>
       </c>
       <c r="AA7">
-        <v>488</v>
+        <v>905</v>
       </c>
       <c r="AB7">
-        <v>-30</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -859,34 +866,34 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <v>46.3</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -895,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="T8">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="U8">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -910,16 +917,16 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>431</v>
+        <v>764</v>
       </c>
       <c r="Z8">
-        <v>278</v>
+        <v>521</v>
       </c>
       <c r="AA8">
-        <v>456</v>
+        <v>855</v>
       </c>
       <c r="AB8">
-        <v>-25</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -930,34 +937,34 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>46.3</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
@@ -966,13 +973,13 @@
         <v>9</v>
       </c>
       <c r="S9">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="T9">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="U9">
-        <v>12.9</v>
+        <v>13.3</v>
       </c>
       <c r="W9" s="1">
         <v>6</v>
@@ -981,16 +988,16 @@
         <v>9</v>
       </c>
       <c r="Y9">
-        <v>383</v>
+        <v>702</v>
       </c>
       <c r="Z9">
-        <v>336</v>
+        <v>574</v>
       </c>
       <c r="AA9">
-        <v>492</v>
+        <v>892</v>
       </c>
       <c r="AB9">
-        <v>-109</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1001,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1010,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
@@ -1019,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="K10">
-        <v>44.7</v>
+        <v>43.3</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
@@ -1028,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="O10">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="Q10" s="1">
         <v>7</v>
@@ -1037,14 +1044,14 @@
         <v>8</v>
       </c>
       <c r="S10">
+        <v>9.5</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
         <v>9.800000000000001</v>
       </c>
-      <c r="T10">
-        <v>7.2</v>
-      </c>
-      <c r="U10">
-        <v>9.9</v>
-      </c>
       <c r="W10" s="1">
         <v>7</v>
       </c>
@@ -1052,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>372</v>
+        <v>634</v>
       </c>
       <c r="Z10">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="AA10">
-        <v>378</v>
+        <v>658</v>
       </c>
       <c r="AB10">
-        <v>-6</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1072,25 +1079,25 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>44.7</v>
+        <v>41.8</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
@@ -1099,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
@@ -1108,13 +1115,13 @@
         <v>11</v>
       </c>
       <c r="S11">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="T11">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U11">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="W11" s="1">
         <v>8</v>
@@ -1123,16 +1130,16 @@
         <v>11</v>
       </c>
       <c r="Y11">
-        <v>348</v>
+        <v>612</v>
       </c>
       <c r="Z11">
-        <v>329</v>
+        <v>566</v>
       </c>
       <c r="AA11">
-        <v>438</v>
+        <v>720</v>
       </c>
       <c r="AB11">
-        <v>-90</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1221,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1230,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1239,49 +1246,49 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="T16">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U16">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y16">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="Z16">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA16">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="AB16">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1292,67 +1299,67 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="T17">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="U17">
-        <v>8.6</v>
+        <v>11.9</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="Z17">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AA17">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="AB17">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1363,67 +1370,67 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="M18" s="1">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="Q18" s="1">
         <v>3</v>
       </c>
       <c r="R18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="T18">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="U18">
-        <v>14.2</v>
+        <v>10.1</v>
       </c>
       <c r="W18" s="1">
         <v>3</v>
       </c>
       <c r="X18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="Z18">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="AA18">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AB18">
-        <v>-7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -1434,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -1443,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1">
         <v>4</v>
@@ -1452,49 +1459,49 @@
         <v>11</v>
       </c>
       <c r="K19">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="M19" s="1">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="Q19" s="1">
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U19">
-        <v>13.4</v>
+        <v>9.9</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
       </c>
       <c r="X19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y19">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="Z19">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AA19">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AB19">
-        <v>-4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -1505,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1514,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -1523,49 +1530,49 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="M20" s="1">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="T20">
-        <v>10.2</v>
+        <v>8.1</v>
       </c>
       <c r="U20">
-        <v>11.4</v>
+        <v>14.9</v>
       </c>
       <c r="W20" s="1">
         <v>5</v>
       </c>
       <c r="X20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="Z20">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AA20">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -1576,67 +1583,67 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O21">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="Q21" s="1">
         <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>10.1</v>
       </c>
       <c r="T21">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="U21">
-        <v>12.4</v>
+        <v>14</v>
       </c>
       <c r="W21" s="1">
         <v>6</v>
       </c>
       <c r="X21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y21">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="Z21">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AA21">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AB21">
-        <v>-7</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -1647,67 +1654,67 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="M22" s="1">
         <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O22">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="Q22" s="1">
         <v>7</v>
       </c>
       <c r="R22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S22">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="T22">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="U22">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="W22" s="1">
         <v>7</v>
       </c>
       <c r="X22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y22">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="Z22">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AA22">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AB22">
-        <v>-20</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -1718,25 +1725,25 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="M23" s="1">
         <v>8</v>
@@ -1745,19 +1752,19 @@
         <v>9</v>
       </c>
       <c r="O23">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="Q23" s="1">
         <v>8</v>
       </c>
       <c r="R23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S23">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="T23">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="U23">
         <v>8.6</v>
@@ -1766,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="X23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y23">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Z23">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AA23">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AB23">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1880,25 +1887,25 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>83.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -1907,40 +1914,40 @@
         <v>5</v>
       </c>
       <c r="O4">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>16.7</v>
+        <v>14.4</v>
       </c>
       <c r="T4">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="Z4">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AA4">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="AB4">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1951,67 +1958,67 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>83.3</v>
+        <v>61.5</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="T5">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U5">
-        <v>8.5</v>
+        <v>14.2</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="Z5">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="AA5">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AB5">
-        <v>30</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2022,67 +2029,67 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>83.3</v>
+        <v>53.8</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="T6">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="U6">
-        <v>9.800000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="Z6">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AA6">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="AB6">
-        <v>11</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2093,67 +2100,67 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="T7">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="U7">
-        <v>9.800000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y7">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="Z7">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AA7">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="AB7">
-        <v>9</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2164,7 +2171,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -2173,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -2182,16 +2189,16 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <v>46.2</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -2200,13 +2207,13 @@
         <v>4</v>
       </c>
       <c r="S8">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="T8">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="U8">
-        <v>13</v>
+        <v>10.2</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -2215,16 +2222,16 @@
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="Z8">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AA8">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AB8">
-        <v>-11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2235,67 +2242,67 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>16.7</v>
+        <v>38.5</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="U9">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
       <c r="W9" s="1">
         <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y9">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="Z9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AA9">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="AB9">
-        <v>-21</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2306,25 +2313,25 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>16.7</v>
+        <v>38.5</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
@@ -2333,40 +2340,40 @@
         <v>7</v>
       </c>
       <c r="O10">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="Q10" s="1">
         <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="T10">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="U10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W10" s="1">
         <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y10">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="Z10">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AA10">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AB10">
-        <v>-27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2377,67 +2384,67 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>16.7</v>
+        <v>30.8</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S11">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="U11">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="W11" s="1">
         <v>8</v>
       </c>
       <c r="X11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y11">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="Z11">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AA11">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="AB11">
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2617,22 +2624,22 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2641,43 +2648,43 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Z4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -2688,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -2697,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -2712,43 +2719,43 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="T5">
         <v>7</v>
       </c>
       <c r="U5">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AA5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2759,22 +2766,22 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2783,43 +2790,43 @@
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y6">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2830,22 +2837,22 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -2854,43 +2861,43 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="T7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Z7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AB7">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2901,13 +2908,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2916,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2928,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -2937,13 +2944,13 @@
         <v>4</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -2952,13 +2959,13 @@
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -2972,13 +2979,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2987,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2996,43 +3003,43 @@
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S9">
         <v>10</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="U9">
+        <v>14.5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="1">
-        <v>6</v>
-      </c>
-      <c r="X9" t="s">
-        <v>6</v>
-      </c>
       <c r="Y9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AA9">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3043,13 +3050,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3058,7 +3065,7 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3067,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O10">
         <v>0.6899999999999999</v>
@@ -3076,34 +3083,34 @@
         <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W10" s="1">
         <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z10">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3114,7 +3121,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -3138,10 +3145,10 @@
         <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>0.38</v>
+        <v>0.61</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
@@ -3150,13 +3157,13 @@
         <v>11</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="U11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W11" s="1">
         <v>8</v>
@@ -3165,16 +3172,16 @@
         <v>11</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Z11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AB11">
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3261,6 +3268,743 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1.55</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>17</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <v>11</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>1.33</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>12</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>16</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>1.11</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>13</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>14</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>1.11</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>11</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>16</v>
+      </c>
+      <c r="AB7">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1.08</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7</v>
+      </c>
+      <c r="X10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>0.38</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>18</v>
+      </c>
+      <c r="U11">
+        <v>13</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>13</v>
+      </c>
+      <c r="AB11">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB23"/>
   <sheetViews>
@@ -3270,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -3354,17 +4098,17 @@
         <v>4</v>
       </c>
       <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>23</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
@@ -3372,7 +4116,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>60.9</v>
+        <v>63.9</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -3381,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -3390,13 +4134,13 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="T4">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U4">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
@@ -3405,16 +4149,16 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>333</v>
+        <v>498</v>
       </c>
       <c r="Z4">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="AA4">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="AB4">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3425,25 +4169,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>56.5</v>
+        <v>55.6</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -3452,40 +4196,40 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="T5">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="U5">
-        <v>13.2</v>
+        <v>9.5</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y5">
-        <v>311</v>
+        <v>480</v>
       </c>
       <c r="Z5">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="AA5">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="AB5">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3496,25 +4240,25 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>52.2</v>
+        <v>55.6</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -3523,40 +4267,40 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="T6">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="U6">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="Z6">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="AA6">
-        <v>211</v>
+        <v>449</v>
       </c>
       <c r="AB6">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3567,25 +4311,25 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>52.2</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
@@ -3594,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
@@ -3603,13 +4347,13 @@
         <v>7</v>
       </c>
       <c r="S7">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="T7">
         <v>8.199999999999999</v>
       </c>
       <c r="U7">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="W7" s="1">
         <v>4</v>
@@ -3618,16 +4362,16 @@
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="Z7">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="AA7">
-        <v>289</v>
+        <v>481</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3638,25 +4382,25 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>52.2</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
@@ -3665,7 +4409,7 @@
         <v>8</v>
       </c>
       <c r="O8">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -3674,13 +4418,13 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="T8">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U8">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -3689,16 +4433,16 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>265</v>
+        <v>405</v>
       </c>
       <c r="Z8">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="AA8">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="AB8">
-        <v>-29</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -3709,34 +4453,34 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>44.4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="1">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>47.8</v>
-      </c>
-      <c r="M9" s="1">
-        <v>6</v>
-      </c>
-      <c r="N9" t="s">
-        <v>6</v>
-      </c>
       <c r="O9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
@@ -3745,13 +4489,13 @@
         <v>9</v>
       </c>
       <c r="S9">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="T9">
         <v>9.300000000000001</v>
       </c>
       <c r="U9">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="W9" s="1">
         <v>6</v>
@@ -3760,16 +4504,16 @@
         <v>9</v>
       </c>
       <c r="Y9">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="Z9">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="AA9">
-        <v>289</v>
+        <v>467</v>
       </c>
       <c r="AB9">
-        <v>-67</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3780,67 +4524,67 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>39.1</v>
+        <v>41.7</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
       </c>
       <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>0.87</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
         <v>11</v>
       </c>
-      <c r="O10">
-        <v>0.83</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
       <c r="S10">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T10">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="U10">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="W10" s="1">
         <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y10">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="Z10">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="AA10">
-        <v>232</v>
+        <v>383</v>
       </c>
       <c r="AB10">
-        <v>-11</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3851,25 +4595,25 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
@@ -3878,45 +4622,45 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="T11">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="U11">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="W11" s="1">
         <v>8</v>
       </c>
       <c r="X11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y11">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="Z11">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="AA11">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="AB11">
-        <v>-43</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -4024,43 +4768,43 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="T16">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U16">
-        <v>13.8</v>
+        <v>15.2</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y16">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z16">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA16">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AB16">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -4077,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -4086,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>60</v>
@@ -4095,43 +4839,43 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17">
         <v>14.6</v>
       </c>
       <c r="T17">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>8.6</v>
+        <v>12.6</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <v>73</v>
       </c>
       <c r="Z17">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA17">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AB17">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -4148,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4157,7 +4901,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>60</v>
@@ -4166,43 +4910,43 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="Q18" s="1">
         <v>3</v>
       </c>
       <c r="R18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>12.8</v>
+        <v>14.6</v>
       </c>
       <c r="T18">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="U18">
-        <v>14.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W18" s="1">
         <v>3</v>
       </c>
       <c r="X18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="Z18">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AA18">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="AB18">
-        <v>-7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -4237,43 +4981,43 @@
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="Q19" s="1">
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U19">
-        <v>13.4</v>
+        <v>10.2</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
       </c>
       <c r="X19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y19">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z19">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA19">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB19">
-        <v>-4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -4308,43 +5052,43 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>0.98</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
         <v>11</v>
       </c>
-      <c r="O20">
-        <v>0.91</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s">
-        <v>7</v>
-      </c>
       <c r="S20">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="T20">
         <v>10.2</v>
       </c>
       <c r="U20">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="W20" s="1">
         <v>5</v>
       </c>
       <c r="X20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y20">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Z20">
         <v>51</v>
       </c>
       <c r="AA20">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -4361,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -4370,7 +5114,7 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>40</v>
@@ -4379,43 +5123,43 @@
         <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O21">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="Q21" s="1">
         <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T21">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="U21">
-        <v>12.4</v>
+        <v>15.2</v>
       </c>
       <c r="W21" s="1">
         <v>6</v>
       </c>
       <c r="X21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z21">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA21">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AB21">
-        <v>-7</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -4432,7 +5176,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -4441,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <v>40</v>
@@ -4450,10 +5194,10 @@
         <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="Q22" s="1">
         <v>7</v>
@@ -4462,13 +5206,13 @@
         <v>9</v>
       </c>
       <c r="S22">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="T22">
-        <v>8.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="U22">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W22" s="1">
         <v>7</v>
@@ -4477,13 +5221,13 @@
         <v>9</v>
       </c>
       <c r="Y22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z22">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AA22">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB22">
         <v>-20</v>
@@ -4503,7 +5247,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4512,7 +5256,7 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <v>40</v>
@@ -4521,43 +5265,43 @@
         <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O23">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="Q23" s="1">
         <v>8</v>
       </c>
       <c r="R23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S23">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T23">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="W23" s="1">
         <v>8</v>
       </c>
       <c r="X23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y23">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Z23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA23">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AB23">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4565,9 +5309,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4575,7 +5319,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -4659,25 +5403,25 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>62.5</v>
+        <v>66.7</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -4686,40 +5430,40 @@
         <v>5</v>
       </c>
       <c r="O4">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="T4">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="U4">
-        <v>10.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="Z4">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="AA4">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="AB4">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4730,25 +5474,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>62.5</v>
+        <v>66.7</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -4757,40 +5501,40 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="T5">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="U5">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y5">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="Z5">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AA5">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AB5">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4801,25 +5545,25 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>62.5</v>
+        <v>46.7</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -4828,40 +5572,40 @@
         <v>6</v>
       </c>
       <c r="O6">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="T6">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="U6">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="W6" s="1">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="Z6">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="AA6">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="AB6">
-        <v>-3</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4872,25 +5616,25 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>46.7</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
@@ -4899,7 +5643,7 @@
         <v>10</v>
       </c>
       <c r="O7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
@@ -4908,14 +5652,14 @@
         <v>6</v>
       </c>
       <c r="S7">
+        <v>12.5</v>
+      </c>
+      <c r="T7">
+        <v>7.1</v>
+      </c>
+      <c r="U7">
         <v>11.9</v>
       </c>
-      <c r="T7">
-        <v>7.4</v>
-      </c>
-      <c r="U7">
-        <v>10.2</v>
-      </c>
       <c r="W7" s="1">
         <v>4</v>
       </c>
@@ -4923,16 +5667,16 @@
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="Z7">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="AA7">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="AB7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4943,25 +5687,25 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <v>46.7</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
@@ -4970,40 +5714,40 @@
         <v>8</v>
       </c>
       <c r="O8">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="T8">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="U8">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="Z8">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="AA8">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="AB8">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5014,25 +5758,25 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>37.5</v>
+        <v>46.7</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
@@ -5041,7 +5785,7 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="Q9" s="1">
         <v>6</v>
@@ -5050,13 +5794,13 @@
         <v>9</v>
       </c>
       <c r="S9">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T9">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="U9">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="W9" s="1">
         <v>6</v>
@@ -5065,16 +5809,16 @@
         <v>9</v>
       </c>
       <c r="Y9">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="Z9">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="AA9">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="AB9">
-        <v>-19</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5085,25 +5829,25 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
@@ -5112,7 +5856,7 @@
         <v>9</v>
       </c>
       <c r="O10">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Q10" s="1">
         <v>7</v>
@@ -5121,13 +5865,13 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T10">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="U10">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="W10" s="1">
         <v>7</v>
@@ -5136,16 +5880,16 @@
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Z10">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="AA10">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AB10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5156,25 +5900,25 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
@@ -5183,7 +5927,7 @@
         <v>11</v>
       </c>
       <c r="O11">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Q11" s="1">
         <v>8</v>
@@ -5192,13 +5936,13 @@
         <v>11</v>
       </c>
       <c r="S11">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="U11">
-        <v>13.8</v>
+        <v>12</v>
       </c>
       <c r="W11" s="1">
         <v>8</v>
@@ -5207,21 +5951,21 @@
         <v>11</v>
       </c>
       <c r="Y11">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="Z11">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AA11">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AB11">
-        <v>-48</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -5295,6 +6039,574 @@
       </c>
       <c r="AB15" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>66.7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1.22</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>14.7</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>13.3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>44</v>
+      </c>
+      <c r="Z16">
+        <v>24</v>
+      </c>
+      <c r="AA16">
+        <v>40</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>66.7</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>1.21</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>13.7</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>14.3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>41</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+      <c r="AA17">
+        <v>43</v>
+      </c>
+      <c r="AB17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>66.7</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>1.1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>13</v>
+      </c>
+      <c r="T18">
+        <v>7.3</v>
+      </c>
+      <c r="U18">
+        <v>10.7</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>39</v>
+      </c>
+      <c r="Z18">
+        <v>22</v>
+      </c>
+      <c r="AA18">
+        <v>32</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>66.7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>1.05</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>11.3</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>34</v>
+      </c>
+      <c r="Z19">
+        <v>24</v>
+      </c>
+      <c r="AA19">
+        <v>28</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>33.3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>0.97</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>11.3</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>11.7</v>
+      </c>
+      <c r="W20" s="1">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <v>34</v>
+      </c>
+      <c r="Z20">
+        <v>30</v>
+      </c>
+      <c r="AA20">
+        <v>35</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>33.3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>0.95</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>10.3</v>
+      </c>
+      <c r="T21">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U21">
+        <v>14</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>31</v>
+      </c>
+      <c r="Z21">
+        <v>26</v>
+      </c>
+      <c r="AA21">
+        <v>42</v>
+      </c>
+      <c r="AB21">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>33.3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>0.88</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="T22">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U22">
+        <v>11</v>
+      </c>
+      <c r="W22" s="1">
+        <v>7</v>
+      </c>
+      <c r="X22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22">
+        <v>29</v>
+      </c>
+      <c r="Z22">
+        <v>25</v>
+      </c>
+      <c r="AA22">
+        <v>33</v>
+      </c>
+      <c r="AB22">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>33.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0.74</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>7.7</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>7.3</v>
+      </c>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23">
+        <v>23</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>22</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
